--- a/BackTest/2019-10-25 BackTest LBA.xlsx
+++ b/BackTest/2019-10-25 BackTest LBA.xlsx
@@ -456,15 +456,9 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -498,14 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -539,12 +531,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="n">
         <v>14.9</v>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -582,10 +576,12 @@
       <c r="J5" t="n">
         <v>14.9</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>14.9</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -615,20 +611,14 @@
         <v>15.38</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>15</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +646,14 @@
         <v>15.36333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +681,14 @@
         <v>15.34666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>15</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +716,14 @@
         <v>15.33</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>15</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +751,14 @@
         <v>15.31166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +786,14 @@
         <v>15.29166666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +821,14 @@
         <v>15.27833333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>15</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +856,14 @@
         <v>15.25833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +891,14 @@
         <v>15.23833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +926,14 @@
         <v>15.21666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +961,14 @@
         <v>15.19666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +996,14 @@
         <v>15.18666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1031,14 @@
         <v>15.165</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1066,14 @@
         <v>15.14666666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1101,14 @@
         <v>15.13166666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1136,14 @@
         <v>15.11166666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1171,14 @@
         <v>15.10166666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1206,14 @@
         <v>15.09333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1241,14 @@
         <v>15.08666666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1276,14 @@
         <v>15.07999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1311,14 @@
         <v>15.07666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1346,14 @@
         <v>15.07333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>15</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1381,14 @@
         <v>15.06999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1416,14 @@
         <v>15.06333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1451,14 @@
         <v>15.05666666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1486,14 @@
         <v>15.05166666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1521,14 @@
         <v>15.04333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1563,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1598,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1807,11 +1633,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1846,11 +1668,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1885,11 +1703,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1738,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1963,11 +1773,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +1808,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2041,11 +1843,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2080,11 +1878,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +1913,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2158,11 +1948,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2197,11 +1983,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +2018,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2275,11 +2053,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2314,11 +2088,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2123,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2392,11 +2158,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2193,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2470,11 +2228,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2263,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2298,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2587,11 +2333,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2626,11 +2368,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2403,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2704,11 +2438,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2743,11 +2473,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2782,11 +2508,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2543,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2578,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2613,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2938,11 +2648,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2683,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2718,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +2753,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +2788,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3133,11 +2823,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +2858,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +2893,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3250,11 +2928,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +2963,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +2998,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3367,11 +3033,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3068,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3445,11 +3103,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3484,11 +3138,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3519,16 +3169,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3626,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3661,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3696,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest LBA.xlsx
+++ b/BackTest/2019-10-25 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2097091.535893433</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -2266,14 +2266,10 @@
         <v>1461307.075693434</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2303,12 +2299,12 @@
         <v>1433737.075693434</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>14.9</v>
       </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2342,12 +2338,12 @@
         <v>1458167.075693434</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,12 +2377,12 @@
         <v>1458167.075693434</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>14.9</v>
       </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,12 +2416,12 @@
         <v>1458167.075693434</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>14.9</v>
       </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,12 +2455,12 @@
         <v>1463858.942293434</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>14.9</v>
       </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,12 +2494,12 @@
         <v>1461927.806793434</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,12 +2533,12 @@
         <v>1461927.806793434</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>14.9</v>
       </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,12 +2572,12 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>14.9</v>
       </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,12 +2611,12 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,12 +2650,12 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,12 +2689,12 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2735,9 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,12 +2765,12 @@
         <v>1460189.533193434</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>14.9</v>
       </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,12 +2804,12 @@
         <v>1460356.199793434</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>14.9</v>
       </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2849,12 +2843,12 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,12 +2882,12 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
         <v>14.9</v>
       </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,14 +2921,12 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>14.9</v>
       </c>
-      <c r="J74" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,12 +2960,12 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>14.9</v>
       </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,14 +2999,12 @@
         <v>1413322.416793434</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>14.9</v>
       </c>
-      <c r="J76" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,14 +3038,12 @@
         <v>1324787.807593434</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>14.8</v>
       </c>
-      <c r="J77" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,14 +3077,12 @@
         <v>1533700.922593434</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>14.7</v>
       </c>
-      <c r="J78" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,14 +3116,12 @@
         <v>1533656.922593434</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>14.8</v>
       </c>
-      <c r="J79" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3171,14 +3155,12 @@
         <v>1533656.922593434</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>14.7</v>
       </c>
-      <c r="J80" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,14 +3194,12 @@
         <v>1535017.466893434</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>14.7</v>
       </c>
-      <c r="J81" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3253,14 +3233,12 @@
         <v>1535017.466893434</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>14.9</v>
       </c>
-      <c r="J82" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3294,14 +3272,12 @@
         <v>1516974.342993434</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>14.9</v>
       </c>
-      <c r="J83" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3335,14 +3311,12 @@
         <v>1516974.342993434</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>14.8</v>
       </c>
-      <c r="J84" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,14 +3350,12 @@
         <v>1818474.275793434</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>14.8</v>
       </c>
-      <c r="J85" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3417,14 +3389,12 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>14.9</v>
       </c>
-      <c r="J86" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,12 +3428,12 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,12 +3467,12 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,12 +3506,12 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,12 +3545,12 @@
         <v>2166089.471493434</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,12 +3584,12 @@
         <v>2107129.223293434</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,9 +3626,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +3663,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3700,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3737,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +3774,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +3811,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,9 +3848,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,9 +3885,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,9 +3922,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,9 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +3996,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,9 +4033,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,9 +4070,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,9 +4107,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,9 +4144,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,9 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,9 +4218,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,9 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,9 +4292,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,9 +4329,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,9 +4366,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,9 +4403,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,9 +4440,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,9 +4477,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,9 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,9 +4551,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,9 +4588,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,9 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4662,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,9 +4699,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,9 +4736,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,9 +4773,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,9 +4810,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,9 +4847,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,9 +4884,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5021,9 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,9 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,9 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,9 +5032,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,9 +5069,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,9 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,9 +5143,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,9 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,9 +5217,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,9 +5254,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,9 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,9 +5328,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,12 +5362,10 @@
         <v>3501062.496071135</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5528,9 +5402,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,9 +5439,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,9 +5476,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,12 +5510,10 @@
         <v>3666060.661671135</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,9 +5550,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5723,9 +5587,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5762,9 +5624,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,9 +5661,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,9 +5698,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5879,9 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,9 +5772,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5957,9 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,9 +5846,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6035,9 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6074,9 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,9 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,9 +5994,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6191,9 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,9 +6068,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6269,9 +6105,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,9 +6142,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,9 +6179,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6386,9 +6216,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,9 +6253,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,9 +6290,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,9 +6327,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6542,9 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,9 +6401,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,9 +6438,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,9 +6475,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,9 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,9 +6549,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6776,9 +6586,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6815,9 +6623,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,9 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,9 +6697,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,9 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,9 +6771,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,9 +6808,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7049,9 +6845,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,9 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,9 +6919,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,9 +6956,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7205,9 +6993,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,9 +7030,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7283,9 +7067,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7322,9 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,9 +7141,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7400,9 +7178,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7439,9 +7215,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,9 +7252,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,9 +7289,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7556,9 +7326,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7595,9 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7634,9 +7400,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,9 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7712,9 +7474,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,9 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,9 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7829,9 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7868,9 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,9 +7659,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7946,9 +7696,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7985,9 +7733,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,9 +7770,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,9 +7807,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,9 +7844,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,9 +7881,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,9 +7918,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,9 +7955,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,9 +7992,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,9 +8029,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,9 +8066,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8375,9 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8414,9 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,9 +8177,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8492,9 +8214,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8531,9 +8251,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,9 +8288,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8609,9 +8325,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,9 +8362,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8687,9 +8399,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8726,9 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8765,9 +8473,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8804,9 +8510,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8843,9 +8547,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,9 +8584,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,9 +8621,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,9 +8658,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8999,9 +8695,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,9 +8732,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9077,9 +8769,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,9 +8806,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,9 +8843,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,9 +8880,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,9 +8917,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9269,12 +8951,10 @@
         <v>2481812.258171134</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,12 +8988,10 @@
         <v>3011314.866971134</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,12 +9025,10 @@
         <v>3260354.439659514</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,12 +9062,10 @@
         <v>3093491.233759514</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,12 +9099,10 @@
         <v>3424607.592959513</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9467,9 +9139,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9506,9 +9176,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,9 +9213,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9581,12 +9247,10 @@
         <v>3612086.366776276</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,12 +9284,10 @@
         <v>3546079.923176276</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,12 +9321,10 @@
         <v>3446646.120476277</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,12 +9358,10 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,12 +9395,10 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9776,12 +9432,10 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9815,12 +9469,10 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,12 +9506,10 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,12 +9543,10 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,20 +9580,16 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
@@ -9974,14 +9618,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10010,17 +9648,11 @@
         <v>3350737.646476277</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10049,17 +9681,11 @@
         <v>3252477.445376277</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10088,17 +9714,11 @@
         <v>3252487.445376277</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10127,17 +9747,11 @@
         <v>3100610.082276276</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10166,17 +9780,11 @@
         <v>3304332.263776276</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10205,17 +9813,11 @@
         <v>3304332.263776276</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10244,17 +9846,11 @@
         <v>3437357.944076276</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10283,17 +9879,11 @@
         <v>3431970.050676276</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10322,17 +9912,11 @@
         <v>3420206.126276277</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10361,17 +9945,11 @@
         <v>3484095.390176277</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10400,17 +9978,11 @@
         <v>3455333.885776277</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10439,17 +10011,11 @@
         <v>3458994.185776277</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10478,17 +10044,11 @@
         <v>3458994.185776277</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10517,17 +10077,11 @@
         <v>3453845.982276277</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10559,14 +10113,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10595,17 +10143,11 @@
         <v>3455545.982276277</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10634,17 +10176,11 @@
         <v>3455545.982276277</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10673,17 +10209,11 @@
         <v>3412479.048276277</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10712,17 +10242,11 @@
         <v>3412479.048276277</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10751,17 +10275,11 @@
         <v>3366933.697676277</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10790,17 +10308,11 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10829,17 +10341,11 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10868,17 +10374,11 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10907,17 +10407,11 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10946,17 +10440,11 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10985,17 +10473,11 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11024,17 +10506,11 @@
         <v>3552991.787876277</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11063,17 +10539,11 @@
         <v>3665600.057776277</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11102,17 +10572,11 @@
         <v>3653459.445876277</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11141,17 +10605,11 @@
         <v>3655769.740976277</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11180,17 +10638,11 @@
         <v>3681860.393876277</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11219,17 +10671,11 @@
         <v>3681860.393876277</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11258,17 +10704,11 @@
         <v>3672007.452776277</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11297,17 +10737,11 @@
         <v>3672007.452776277</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11336,17 +10770,11 @@
         <v>3672007.452776277</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11375,17 +10803,11 @@
         <v>3773351.236676278</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11414,17 +10836,11 @@
         <v>3773351.236676278</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11453,17 +10869,11 @@
         <v>3757627.956876277</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11492,17 +10902,11 @@
         <v>3759812.532376277</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11531,17 +10935,11 @@
         <v>3778431.229476277</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11570,17 +10968,11 @@
         <v>3778431.229476277</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11609,23 +11001,15 @@
         <v>4032240.255576277</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
-        <v>1.162785234899329</v>
-      </c>
-      <c r="M296" t="n">
-        <v>1.094594594594595</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11650,7 +11034,7 @@
         <v>3856913.548976277</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11683,7 +11067,7 @@
         <v>3660815.968676277</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11716,7 +11100,7 @@
         <v>3847771.697876277</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11749,7 +11133,7 @@
         <v>3847771.697876277</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11782,7 +11166,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11815,7 +11199,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11848,7 +11232,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11881,7 +11265,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11914,7 +11298,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11947,7 +11331,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11980,7 +11364,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12013,7 +11397,7 @@
         <v>3894428.934976277</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12046,7 +11430,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12079,7 +11463,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12112,7 +11496,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12145,7 +11529,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12178,7 +11562,7 @@
         <v>3830975.690076277</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12211,7 +11595,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12244,7 +11628,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12277,7 +11661,7 @@
         <v>3935786.096276277</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12310,7 +11694,7 @@
         <v>3915786.096276277</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12343,7 +11727,7 @@
         <v>3937381.591976277</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12376,7 +11760,7 @@
         <v>3926548.452176277</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12409,7 +11793,7 @@
         <v>3958170.052429765</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12442,7 +11826,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12475,7 +11859,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12508,7 +11892,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12541,7 +11925,7 @@
         <v>3785931.664029765</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12574,7 +11958,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12607,7 +11991,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12640,7 +12024,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12673,7 +12057,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12706,7 +12090,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12739,7 +12123,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12838,7 +12222,7 @@
         <v>3796297.507229765</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12871,7 +12255,7 @@
         <v>3932578.935429765</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12937,7 +12321,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12970,7 +12354,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13003,7 +12387,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13102,7 +12486,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13135,7 +12519,7 @@
         <v>4035829.976497582</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13300,7 +12684,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13333,7 +12717,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13399,7 +12783,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13432,7 +12816,7 @@
         <v>4278649.503997581</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13465,7 +12849,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13498,7 +12882,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13531,7 +12915,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13564,7 +12948,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13597,7 +12981,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13630,7 +13014,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13663,7 +13047,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13696,7 +13080,7 @@
         <v>4237478.15199758</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13729,7 +13113,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13762,7 +13146,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13795,7 +13179,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13828,7 +13212,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13861,7 +13245,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13894,7 +13278,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13927,7 +13311,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13960,7 +13344,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13993,7 +13377,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14026,7 +13410,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14059,7 +13443,7 @@
         <v>4238416.965597581</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14092,7 +13476,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14323,7 +13707,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14488,7 +13872,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14587,7 +13971,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14620,7 +14004,7 @@
         <v>4084636.654697582</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14653,7 +14037,7 @@
         <v>4084679.654697582</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14686,7 +14070,7 @@
         <v>3761612.863981302</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14719,7 +14103,7 @@
         <v>3809260.778481302</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14752,7 +14136,7 @@
         <v>3809260.778481302</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14785,7 +14169,7 @@
         <v>3810988.131422479</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14884,7 +14268,7 @@
         <v>3742295.015522479</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14950,7 +14334,7 @@
         <v>3773782.928422479</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15016,7 +14400,7 @@
         <v>3725048.515522479</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15049,7 +14433,7 @@
         <v>3733400.823122479</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15082,7 +14466,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15115,7 +14499,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15148,7 +14532,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15181,7 +14565,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15214,7 +14598,7 @@
         <v>3839680.446422479</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15247,7 +14631,7 @@
         <v>3855784.306022479</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15280,7 +14664,7 @@
         <v>3814710.751322479</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15313,7 +14697,7 @@
         <v>3957105.490322479</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15346,7 +14730,7 @@
         <v>3950705.490322479</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15379,7 +14763,7 @@
         <v>3950705.490322479</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15412,7 +14796,7 @@
         <v>3950705.490322479</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15445,7 +14829,7 @@
         <v>4100904.363622479</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15478,7 +14862,7 @@
         <v>4055352.528622479</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15511,7 +14895,7 @@
         <v>4187633.416186384</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15544,7 +14928,7 @@
         <v>4136553.201086384</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15577,7 +14961,7 @@
         <v>4136553.201086384</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15610,7 +14994,7 @@
         <v>4143962.064086384</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15643,7 +15027,7 @@
         <v>4249602.759886384</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15676,7 +15060,7 @@
         <v>4233539.159986384</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15709,7 +15093,7 @@
         <v>4233652.983486384</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16006,7 +15390,7 @@
         <v>4132508.500486384</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16072,7 +15456,7 @@
         <v>4093210.363086384</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16138,7 +15522,7 @@
         <v>4093210.363086384</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16171,7 +15555,7 @@
         <v>4093210.363086384</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16204,7 +15588,7 @@
         <v>3861601.394086384</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16237,7 +15621,7 @@
         <v>3864430.990286384</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16270,7 +15654,7 @@
         <v>3864430.990286384</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16402,7 +15786,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16435,7 +15819,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16468,7 +15852,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16501,7 +15885,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16534,7 +15918,7 @@
         <v>3865244.565386383</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16567,7 +15951,7 @@
         <v>3895643.275986383</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16600,7 +15984,7 @@
         <v>3895643.275986383</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16633,7 +16017,7 @@
         <v>4001153.420186383</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16666,7 +16050,7 @@
         <v>4001153.420186383</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16699,7 +16083,7 @@
         <v>3987664.190386383</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16765,7 +16149,7 @@
         <v>4039870.131486383</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16798,7 +16182,7 @@
         <v>3934714.072686384</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17029,7 +16413,7 @@
         <v>3924028.193086383</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17062,7 +16446,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17095,7 +16479,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17128,7 +16512,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17161,7 +16545,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17194,7 +16578,7 @@
         <v>3852643.613086383</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17227,7 +16611,7 @@
         <v>3852653.613086383</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17260,7 +16644,7 @@
         <v>3848656.197486383</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17293,7 +16677,7 @@
         <v>3846827.262186383</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17326,7 +16710,7 @@
         <v>3846837.262186383</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17359,7 +16743,7 @@
         <v>3785555.007386383</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17392,7 +16776,7 @@
         <v>3785566.007386383</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17425,7 +16809,7 @@
         <v>3785566.007386383</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17458,7 +16842,7 @@
         <v>3876985.910486383</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17491,7 +16875,7 @@
         <v>3875820.679086383</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17524,7 +16908,7 @@
         <v>3875820.679086383</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17557,7 +16941,7 @@
         <v>3875830.679086383</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17590,7 +16974,7 @@
         <v>3875830.679086383</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17623,7 +17007,7 @@
         <v>3875830.679086383</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17986,7 +17370,7 @@
         <v>3965228.887286383</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18019,7 +17403,7 @@
         <v>3965228.887286383</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18052,7 +17436,7 @@
         <v>3809321.448386383</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18085,7 +17469,7 @@
         <v>3809321.448386383</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18118,7 +17502,7 @@
         <v>3809321.448386383</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18151,7 +17535,7 @@
         <v>3813417.805786383</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18184,7 +17568,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18217,7 +17601,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18250,7 +17634,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18283,7 +17667,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18316,7 +17700,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18349,7 +17733,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18382,7 +17766,7 @@
         <v>3819484.101686383</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18415,7 +17799,7 @@
         <v>3847286.299186383</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18448,7 +17832,7 @@
         <v>3778087.362286383</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18481,7 +17865,7 @@
         <v>3778087.362286383</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18514,7 +17898,7 @@
         <v>3854232.328486383</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18547,7 +17931,7 @@
         <v>3839319.021586383</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18580,7 +17964,7 @@
         <v>3839319.021586383</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18646,7 +18030,7 @@
         <v>3839319.021586383</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18679,7 +18063,7 @@
         <v>3640001.591786383</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18712,7 +18096,7 @@
         <v>3594345.066186383</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18745,7 +18129,7 @@
         <v>3619477.707886383</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18778,7 +18162,7 @@
         <v>3619477.707886383</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18811,7 +18195,7 @@
         <v>3643786.495686383</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18844,7 +18228,7 @@
         <v>3472694.173986383</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18877,7 +18261,7 @@
         <v>3472694.173986383</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18910,7 +18294,7 @@
         <v>3476950.851486383</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18943,7 +18327,7 @@
         <v>3476950.851486383</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18976,7 +18360,7 @@
         <v>3476950.851486383</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19141,7 +18525,7 @@
         <v>3508451.412686383</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19174,7 +18558,7 @@
         <v>3508451.412686383</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19207,7 +18591,7 @@
         <v>3560211.534786383</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19240,7 +18624,7 @@
         <v>3560211.534786383</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19273,7 +18657,7 @@
         <v>3557472.820786383</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19405,7 +18789,7 @@
         <v>3555062.404886383</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19471,7 +18855,7 @@
         <v>3563562.163386383</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19537,7 +18921,7 @@
         <v>3615388.405286382</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19570,7 +18954,7 @@
         <v>3572352.717886382</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19603,7 +18987,7 @@
         <v>3554230.043786382</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19669,7 +19053,7 @@
         <v>3550617.512986382</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19702,7 +19086,7 @@
         <v>3550627.512986382</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19735,7 +19119,7 @@
         <v>3360603.389186382</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19801,7 +19185,7 @@
         <v>3435680.487386382</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19834,7 +19218,7 @@
         <v>3433874.228986382</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19933,7 +19317,7 @@
         <v>3468101.652586382</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20032,7 +19416,7 @@
         <v>3148812.870386382</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20065,7 +19449,7 @@
         <v>3148812.870386382</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20098,7 +19482,7 @@
         <v>2983068.657586382</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20131,7 +19515,7 @@
         <v>2983068.657586382</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -27402,6 +26786,6 @@
       <c r="M774" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest LBA.xlsx
+++ b/BackTest/2019-10-25 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2299,17 +2299,11 @@
         <v>1433737.075693434</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2338,17 +2332,11 @@
         <v>1458167.075693434</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2377,17 +2365,11 @@
         <v>1458167.075693434</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2416,17 +2398,11 @@
         <v>1458167.075693434</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2455,17 +2431,11 @@
         <v>1463858.942293434</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2494,17 +2464,11 @@
         <v>1461927.806793434</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2533,17 +2497,11 @@
         <v>1461927.806793434</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2572,17 +2530,11 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2611,17 +2563,11 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2650,17 +2596,11 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2689,17 +2629,11 @@
         <v>1462188.406793434</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2732,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2765,17 +2695,11 @@
         <v>1460189.533193434</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2804,17 +2728,11 @@
         <v>1460356.199793434</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2843,17 +2761,11 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2882,17 +2794,11 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2921,17 +2827,11 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2960,17 +2860,11 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2999,17 +2893,11 @@
         <v>1413322.416793434</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3046,7 +2934,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3428,11 +3316,9 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3467,11 +3353,9 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3506,11 +3390,9 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3545,11 +3427,9 @@
         <v>2166089.471493434</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3584,11 +3464,9 @@
         <v>2107129.223293434</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4696,18 +4574,16 @@
         <v>2645646.358456849</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -4733,15 +4609,11 @@
         <v>2715893.202256849</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4770,15 +4642,11 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4807,15 +4675,11 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4844,15 +4708,11 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4881,15 +4741,11 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4918,15 +4774,11 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4955,15 +4807,11 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4992,15 +4840,11 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5029,15 +4873,11 @@
         <v>2652588.405056849</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5066,15 +4906,11 @@
         <v>2652600.405056849</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5103,15 +4939,11 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5140,15 +4972,11 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5177,15 +5005,11 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5214,15 +5038,11 @@
         <v>2920272.034256849</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5251,15 +5071,11 @@
         <v>3699369.984056849</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5288,15 +5104,11 @@
         <v>3745035.571156849</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5325,15 +5137,11 @@
         <v>3745035.571156849</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5174,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5207,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5240,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5273,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5306,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5339,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5372,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5405,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5438,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5471,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5504,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5537,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5570,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5603,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5636,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5669,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5702,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5735,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5768,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5801,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5834,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5867,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5900,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5933,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5966,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5999,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6324,15 +6028,11 @@
         <v>2645468.397671134</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6361,15 +6061,11 @@
         <v>2660088.397671134</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6398,15 +6094,11 @@
         <v>2660088.397671134</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +6131,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +6164,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6197,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6230,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6263,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6296,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +6329,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6362,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6395,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6428,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6461,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6494,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6527,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6560,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +6593,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6626,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6659,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7068,11 +6692,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6725,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7142,11 +6758,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7179,11 +6791,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +6824,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +6857,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7290,11 +6890,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +6923,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6956,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +6989,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +7022,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +7055,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7088,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +7121,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +7154,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +7187,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +7220,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7253,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +7286,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +7319,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +7352,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7385,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7418,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7451,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7484,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7517,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7550,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7583,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7616,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7649,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7682,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +7715,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +7748,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7781,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7814,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7847,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +7880,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7913,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7946,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7979,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +8012,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +8045,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +8078,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +8111,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +8144,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +8177,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +8210,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8243,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +8276,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8309,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +8342,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +8375,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +8408,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8441,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +8474,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +8507,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8540,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +8573,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +8606,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9251,11 +8639,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +8672,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +8705,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8738,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +8771,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8804,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +8837,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +8870,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +8903,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9580,16 +8932,14 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
       <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
@@ -9648,7 +8998,7 @@
         <v>3350737.646476277</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9681,7 +9031,7 @@
         <v>3252477.445376277</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9714,7 +9064,7 @@
         <v>3252487.445376277</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9747,7 +9097,7 @@
         <v>3100610.082276276</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9780,7 +9130,7 @@
         <v>3304332.263776276</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9813,7 +9163,7 @@
         <v>3304332.263776276</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9846,7 +9196,7 @@
         <v>3437357.944076276</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9879,7 +9229,7 @@
         <v>3431970.050676276</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9912,7 +9262,7 @@
         <v>3420206.126276277</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9945,7 +9295,7 @@
         <v>3484095.390176277</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9978,7 +9328,7 @@
         <v>3455333.885776277</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10011,7 +9361,7 @@
         <v>3458994.185776277</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10044,7 +9394,7 @@
         <v>3458994.185776277</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10077,7 +9427,7 @@
         <v>3453845.982276277</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10143,7 +9493,7 @@
         <v>3455545.982276277</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10176,7 +9526,7 @@
         <v>3455545.982276277</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10209,7 +9559,7 @@
         <v>3412479.048276277</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10242,7 +9592,7 @@
         <v>3412479.048276277</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10275,7 +9625,7 @@
         <v>3366933.697676277</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10308,7 +9658,7 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10341,7 +9691,7 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10374,7 +9724,7 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10407,7 +9757,7 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10440,7 +9790,7 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10473,7 +9823,7 @@
         <v>3520791.787876277</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10506,7 +9856,7 @@
         <v>3552991.787876277</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10539,7 +9889,7 @@
         <v>3665600.057776277</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10572,7 +9922,7 @@
         <v>3653459.445876277</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10605,7 +9955,7 @@
         <v>3655769.740976277</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10638,7 +9988,7 @@
         <v>3681860.393876277</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10671,7 +10021,7 @@
         <v>3681860.393876277</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10704,7 +10054,7 @@
         <v>3672007.452776277</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10737,7 +10087,7 @@
         <v>3672007.452776277</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10770,7 +10120,7 @@
         <v>3672007.452776277</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10803,7 +10153,7 @@
         <v>3773351.236676278</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10836,7 +10186,7 @@
         <v>3773351.236676278</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10869,7 +10219,7 @@
         <v>3757627.956876277</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10902,7 +10252,7 @@
         <v>3759812.532376277</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10935,7 +10285,7 @@
         <v>3778431.229476277</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10968,7 +10318,7 @@
         <v>3778431.229476277</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11001,7 +10351,7 @@
         <v>4032240.255576277</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11034,7 +10384,7 @@
         <v>3856913.548976277</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11067,7 +10417,7 @@
         <v>3660815.968676277</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11100,7 +10450,7 @@
         <v>3847771.697876277</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11133,7 +10483,7 @@
         <v>3847771.697876277</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11166,7 +10516,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11199,7 +10549,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11232,7 +10582,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11265,7 +10615,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11298,7 +10648,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11331,7 +10681,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11364,7 +10714,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11397,7 +10747,7 @@
         <v>3894428.934976277</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11430,7 +10780,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11463,7 +10813,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11496,7 +10846,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11529,7 +10879,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11562,7 +10912,7 @@
         <v>3830975.690076277</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11595,7 +10945,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11628,7 +10978,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11661,7 +11011,7 @@
         <v>3935786.096276277</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11694,7 +11044,7 @@
         <v>3915786.096276277</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11727,7 +11077,7 @@
         <v>3937381.591976277</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11760,7 +11110,7 @@
         <v>3926548.452176277</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11793,7 +11143,7 @@
         <v>3958170.052429765</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11826,7 +11176,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11859,7 +11209,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11892,7 +11242,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11925,7 +11275,7 @@
         <v>3785931.664029765</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11958,7 +11308,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11991,7 +11341,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12024,7 +11374,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12057,7 +11407,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12090,7 +11440,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12123,7 +11473,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12222,7 +11572,7 @@
         <v>3796297.507229765</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12255,7 +11605,7 @@
         <v>3932578.935429765</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12321,7 +11671,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12354,7 +11704,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12387,7 +11737,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12684,7 +12034,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12717,7 +12067,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12783,7 +12133,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12816,7 +12166,7 @@
         <v>4278649.503997581</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12849,7 +12199,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12882,7 +12232,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12915,7 +12265,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12948,7 +12298,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12981,7 +12331,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13014,7 +12364,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13047,7 +12397,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13080,7 +12430,7 @@
         <v>4237478.15199758</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13113,7 +12463,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13146,7 +12496,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13179,7 +12529,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13212,7 +12562,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13245,7 +12595,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13278,7 +12628,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13311,7 +12661,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13344,7 +12694,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13377,7 +12727,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13410,7 +12760,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13443,7 +12793,7 @@
         <v>4238416.965597581</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13476,7 +12826,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13707,7 +13057,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13971,7 +13321,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14004,7 +13354,7 @@
         <v>4084636.654697582</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14037,7 +13387,7 @@
         <v>4084679.654697582</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14070,7 +13420,7 @@
         <v>3761612.863981302</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14103,7 +13453,7 @@
         <v>3809260.778481302</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14136,7 +13486,7 @@
         <v>3809260.778481302</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14169,7 +13519,7 @@
         <v>3810988.131422479</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14268,7 +13618,7 @@
         <v>3742295.015522479</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14334,7 +13684,7 @@
         <v>3773782.928422479</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14400,7 +13750,7 @@
         <v>3725048.515522479</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14433,7 +13783,7 @@
         <v>3733400.823122479</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14466,7 +13816,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14499,7 +13849,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14532,7 +13882,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14565,7 +13915,7 @@
         <v>3840573.083422479</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14598,7 +13948,7 @@
         <v>3839680.446422479</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14631,7 +13981,7 @@
         <v>3855784.306022479</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14697,7 +14047,7 @@
         <v>3957105.490322479</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14730,7 +14080,7 @@
         <v>3950705.490322479</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14763,7 +14113,7 @@
         <v>3950705.490322479</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14796,7 +14146,7 @@
         <v>3950705.490322479</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14829,7 +14179,7 @@
         <v>4100904.363622479</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14862,7 +14212,7 @@
         <v>4055352.528622479</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14895,7 +14245,7 @@
         <v>4187633.416186384</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14928,7 +14278,7 @@
         <v>4136553.201086384</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14961,7 +14311,7 @@
         <v>4136553.201086384</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14994,7 +14344,7 @@
         <v>4143962.064086384</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15027,7 +14377,7 @@
         <v>4249602.759886384</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15060,7 +14410,7 @@
         <v>4233539.159986384</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15093,7 +14443,7 @@
         <v>4233652.983486384</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15390,7 +14740,7 @@
         <v>4132508.500486384</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15456,7 +14806,7 @@
         <v>4093210.363086384</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15522,7 +14872,7 @@
         <v>4093210.363086384</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15555,7 +14905,7 @@
         <v>4093210.363086384</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15588,7 +14938,7 @@
         <v>3861601.394086384</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15621,7 +14971,7 @@
         <v>3864430.990286384</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15654,7 +15004,7 @@
         <v>3864430.990286384</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15786,7 +15136,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15819,7 +15169,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15852,7 +15202,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15885,7 +15235,7 @@
         <v>3858237.819686383</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15918,7 +15268,7 @@
         <v>3865244.565386383</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15951,7 +15301,7 @@
         <v>3895643.275986383</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15984,7 +15334,7 @@
         <v>3895643.275986383</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16017,7 +15367,7 @@
         <v>4001153.420186383</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16083,7 +15433,7 @@
         <v>3987664.190386383</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16413,7 +15763,7 @@
         <v>3924028.193086383</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16446,7 +15796,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16479,7 +15829,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16512,7 +15862,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16545,7 +15895,7 @@
         <v>3854353.025286383</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16578,7 +15928,7 @@
         <v>3852643.613086383</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16611,7 +15961,7 @@
         <v>3852653.613086383</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16644,7 +15994,7 @@
         <v>3848656.197486383</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16677,7 +16027,7 @@
         <v>3846827.262186383</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16710,7 +16060,7 @@
         <v>3846837.262186383</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16743,7 +16093,7 @@
         <v>3785555.007386383</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16776,7 +16126,7 @@
         <v>3785566.007386383</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16809,7 +16159,7 @@
         <v>3785566.007386383</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16842,7 +16192,7 @@
         <v>3876985.910486383</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16875,7 +16225,7 @@
         <v>3875820.679086383</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16908,7 +16258,7 @@
         <v>3875820.679086383</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16941,7 +16291,7 @@
         <v>3875830.679086383</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16974,7 +16324,7 @@
         <v>3875830.679086383</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17007,7 +16357,7 @@
         <v>3875830.679086383</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17370,7 +16720,7 @@
         <v>3965228.887286383</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17403,7 +16753,7 @@
         <v>3965228.887286383</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17436,7 +16786,7 @@
         <v>3809321.448386383</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17469,7 +16819,7 @@
         <v>3809321.448386383</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17502,7 +16852,7 @@
         <v>3809321.448386383</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17535,7 +16885,7 @@
         <v>3813417.805786383</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17568,7 +16918,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17601,7 +16951,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17634,7 +16984,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17667,7 +17017,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17700,7 +17050,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17733,7 +17083,7 @@
         <v>3810771.854886383</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17766,7 +17116,7 @@
         <v>3819484.101686383</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17799,7 +17149,7 @@
         <v>3847286.299186383</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17832,7 +17182,7 @@
         <v>3778087.362286383</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17865,7 +17215,7 @@
         <v>3778087.362286383</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17898,7 +17248,7 @@
         <v>3854232.328486383</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17931,7 +17281,7 @@
         <v>3839319.021586383</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17964,7 +17314,7 @@
         <v>3839319.021586383</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18030,7 +17380,7 @@
         <v>3839319.021586383</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18063,7 +17413,7 @@
         <v>3640001.591786383</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18096,7 +17446,7 @@
         <v>3594345.066186383</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18129,7 +17479,7 @@
         <v>3619477.707886383</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18162,7 +17512,7 @@
         <v>3619477.707886383</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18195,7 +17545,7 @@
         <v>3643786.495686383</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18228,7 +17578,7 @@
         <v>3472694.173986383</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18261,7 +17611,7 @@
         <v>3472694.173986383</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18294,7 +17644,7 @@
         <v>3476950.851486383</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18327,7 +17677,7 @@
         <v>3476950.851486383</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18360,7 +17710,7 @@
         <v>3476950.851486383</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18525,7 +17875,7 @@
         <v>3508451.412686383</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18558,7 +17908,7 @@
         <v>3508451.412686383</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18591,7 +17941,7 @@
         <v>3560211.534786383</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18624,7 +17974,7 @@
         <v>3560211.534786383</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18954,7 +18304,7 @@
         <v>3572352.717886382</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18987,7 +18337,7 @@
         <v>3554230.043786382</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19086,7 +18436,7 @@
         <v>3550627.512986382</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19119,7 +18469,7 @@
         <v>3360603.389186382</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19185,7 +18535,7 @@
         <v>3435680.487386382</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19218,7 +18568,7 @@
         <v>3433874.228986382</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19416,7 +18766,7 @@
         <v>3148812.870386382</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19449,7 +18799,7 @@
         <v>3148812.870386382</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19482,7 +18832,7 @@
         <v>2983068.657586382</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19515,7 +18865,7 @@
         <v>2983068.657586382</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -26786,6 +26136,6 @@
       <c r="M774" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>